--- a/public/benchmark_linguistics.xlsx
+++ b/public/benchmark_linguistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/Desktop/tmp/psycholinguistics_benchmark/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356CA05-A1D4-2643-ADFE-1F5C6541145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DB0F7-7F70-BF40-83E8-5F8E6BCA4D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,11 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +485,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,7 +520,7 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="2" t="s">

--- a/public/benchmark_linguistics.xlsx
+++ b/public/benchmark_linguistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/Desktop/tmp/psycholinguistics_benchmark/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DB0F7-7F70-BF40-83E8-5F8E6BCA4D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A56DDB8-25C2-0042-9D31-094F5DCA89E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Dataset</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Task</t>
+  </si>
+  <si>
+    <t>example2</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,6 +620,35 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/benchmark_linguistics.xlsx
+++ b/public/benchmark_linguistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/Desktop/tmp/psycholinguistics_benchmark/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A56DDB8-25C2-0042-9D31-094F5DCA89E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4852437A-9DF5-F947-9AE5-D32C66AE41D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Dataset</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>example2</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Direct prompt</t>
+  </si>
+  <si>
+    <t>FT; Direct prompt</t>
+  </si>
+  <si>
+    <t>3-shot</t>
   </si>
 </sst>
 </file>
@@ -485,26 +497,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -512,28 +525,31 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -541,28 +557,31 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6701</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.79</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.76</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -570,28 +589,31 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6701</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.88</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.84</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -599,28 +621,31 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -628,24 +653,27 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>50</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>14</v>
       </c>
     </row>
